--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2479413.301883066</v>
+        <v>-2480226.749094954</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954294</v>
+        <v>2927877.34595429</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842872</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>62.84548343533874</v>
+        <v>289.1172887419688</v>
       </c>
       <c r="D11" t="n">
-        <v>280.098592786497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922379</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H11" t="n">
-        <v>234.9781829577619</v>
+        <v>234.9781829577617</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241316</v>
+        <v>49.40913696645141</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545174</v>
+        <v>84.0821803754516</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842796</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U11" t="n">
-        <v>163.296248452629</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244664</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024233</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1512,7 +1512,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409842</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898431</v>
+        <v>92.72268265898417</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>78.92267750438465</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>42.75435874517797</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.49179175774249</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.9587160859288</v>
       </c>
       <c r="G13" t="n">
-        <v>21.01003679429124</v>
+        <v>77.99174215033069</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366596</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227663</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271704</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.3637676193851</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706117</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141333</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586099</v>
+        <v>169.1308190586097</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2977051292232</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250263</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.817674881094</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>301.1059717842871</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419689</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864969</v>
+        <v>1.399845719676094</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564024</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922378</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577618</v>
+        <v>234.9781829577617</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241305</v>
+        <v>61.32070768241304</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545163</v>
+        <v>84.08218037545161</v>
       </c>
       <c r="T14" t="n">
         <v>130.7597296842794</v>
@@ -1664,13 +1664,13 @@
         <v>163.2962484526289</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>287.0215663952269</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I15" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310427</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
       </c>
       <c r="T15" t="n">
-        <v>185.6363186866075</v>
+        <v>185.6363186866066</v>
       </c>
       <c r="U15" t="n">
         <v>216.2908792854683</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.7226826589842</v>
+        <v>5.432983624181276</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438468</v>
+        <v>78.92267750438465</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196307</v>
+        <v>62.54404190196304</v>
       </c>
       <c r="E16" t="n">
-        <v>56.84934658008273</v>
+        <v>61.49179175774249</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592883</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366585</v>
+        <v>66.63306124366584</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271693</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>118.3637676193849</v>
@@ -1819,19 +1819,19 @@
         <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586098</v>
+        <v>169.1308190586097</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2977051292231</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>224.1761802728466</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D17" t="n">
         <v>203.1688012750563</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011082</v>
+        <v>7.152388864011101</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283802</v>
       </c>
       <c r="U17" t="n">
         <v>86.36645694118837</v>
@@ -1941,7 +1941,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I18" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945767</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.7548438942011</v>
+        <v>15.79289114754366</v>
       </c>
       <c r="C19" t="n">
         <v>1.992885992944139</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>113.5918261927668</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42.37012655389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864011089</v>
       </c>
       <c r="T20" t="n">
         <v>53.82993817283892</v>
@@ -2178,7 +2178,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I21" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310427</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2239,13 +2239,13 @@
         <v>15.79289114754366</v>
       </c>
       <c r="C22" t="n">
-        <v>7.465914643307234</v>
+        <v>1.992885992944139</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.420778506142556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864011101</v>
       </c>
       <c r="T23" t="n">
         <v>53.82993817283892</v>
@@ -2415,7 +2415,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I24" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310382</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S24" t="n">
         <v>145.9169861849574</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>5.00610432217682</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -2536,7 +2536,7 @@
         <v>92.20102754716925</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177825</v>
+        <v>122.3740179399594</v>
       </c>
       <c r="X25" t="n">
         <v>63.01301561358562</v>
@@ -2561,10 +2561,10 @@
         <v>266.5965738690924</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3387114389978</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F26" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G26" t="n">
         <v>308.9050187748333</v>
@@ -2573,7 +2573,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500855</v>
+        <v>47.8186887650086</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804713</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
@@ -2612,16 +2612,16 @@
         <v>149.7942295352244</v>
       </c>
       <c r="V26" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W26" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X26" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I27" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S27" t="n">
         <v>145.9169861849574</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.2206637415797</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698018</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455857</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033802</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852433</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292622</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626135</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487202</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531243</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
         <v>127.3153939532071</v>
       </c>
       <c r="U28" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V28" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X28" t="n">
         <v>126.4407882076217</v>
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500856</v>
+        <v>47.8186887650086</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804713</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
@@ -2889,7 +2889,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I30" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157971</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C31" t="n">
-        <v>65.4206585869802</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455859</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033803</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852434</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292624</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H31" t="n">
         <v>53.13104232626138</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531243</v>
+        <v>34.66075099531246</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U31" t="n">
         <v>181.8060034967287</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.6039528668826</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
         <v>288.3387114389978</v>
@@ -3047,7 +3047,7 @@
         <v>221.4761640403572</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500853</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.5801614580471</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T32" t="n">
         <v>117.257710766875</v>
@@ -3126,7 +3126,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I33" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157968</v>
+        <v>79.2206637415797</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698017</v>
+        <v>65.42065858698018</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455856</v>
+        <v>49.04202298455857</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033801</v>
+        <v>47.98977284033802</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852431</v>
+        <v>48.45669716852433</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292621</v>
+        <v>64.48972323292622</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626134</v>
+        <v>53.13104232626137</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487201</v>
+        <v>32.99398650487203</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531241</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S34" t="n">
         <v>104.8617487019804</v>
@@ -3241,7 +3241,7 @@
         <v>127.3153939532071</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
         <v>155.6288001412053</v>
@@ -3253,7 +3253,7 @@
         <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C35" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076468</v>
       </c>
       <c r="D35" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100575</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234397</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.4925567411297</v>
+        <v>20.49255674112962</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995755</v>
+        <v>67.17010604995744</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830689</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681011</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008477</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I36" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466229</v>
+        <v>29.13305902466217</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33305387006277</v>
+        <v>15.33305387006266</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19.51683636612839</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600881</v>
+        <v>14.40211851600869</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343941</v>
+        <v>3.043437609343829</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506304</v>
+        <v>54.77414398506293</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628971</v>
+        <v>77.22778923628961</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949011</v>
+        <v>130.708081494901</v>
       </c>
       <c r="X37" t="n">
-        <v>95.87001985683162</v>
+        <v>76.35318349070414</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677194</v>
+        <v>67.22805124677183</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112971</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T38" t="n">
         <v>67.17010604995755</v>
@@ -3600,7 +3600,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I39" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3661,7 +3661,7 @@
         <v>29.13305902466229</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006277</v>
+        <v>34.84989023618991</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>19.51683636612745</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>14.40211851600881</v>
       </c>
       <c r="H40" t="n">
-        <v>3.04343760934394</v>
+        <v>3.043437609343942</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>54.77414398506304</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628971</v>
+        <v>77.22778923628972</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798112</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C41" t="n">
         <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E41" t="n">
         <v>238.2511067220804</v>
@@ -3791,13 +3791,13 @@
         <v>20.49255674112965</v>
       </c>
       <c r="T41" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W41" t="n">
         <v>206.3228248681012</v>
@@ -3806,7 +3806,7 @@
         <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I42" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466223</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343883</v>
+        <v>3.043437609343857</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.77414398506298</v>
+        <v>74.29098035119105</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628964</v>
       </c>
       <c r="U43" t="n">
-        <v>151.2352351459393</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V43" t="n">
         <v>105.5411954242878</v>
@@ -3961,10 +3961,10 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5163481499653</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C44" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D44" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220806</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112979</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995764</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830709</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.0196808970467</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I45" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466237</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006286</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600889</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609344025</v>
+        <v>3.043437609343857</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>17.9148435044014</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>74.29098035118969</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628979</v>
+        <v>77.22778923628964</v>
       </c>
       <c r="U46" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V46" t="n">
-        <v>105.541195424288</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949012</v>
+        <v>132.3100743566279</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070434</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677203</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1021.992959391205</v>
+        <v>1584.73530141641</v>
       </c>
       <c r="C11" t="n">
-        <v>958.5126730928826</v>
+        <v>1292.697636020481</v>
       </c>
       <c r="D11" t="n">
-        <v>675.5848015913705</v>
+        <v>1292.697636020481</v>
       </c>
       <c r="E11" t="n">
-        <v>675.5848015913705</v>
+        <v>987.8080093978529</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913705</v>
+        <v>663.5529119792875</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547667</v>
+        <v>337.8892375426838</v>
       </c>
       <c r="H11" t="n">
-        <v>112.5694271974315</v>
+        <v>100.5375375853489</v>
       </c>
       <c r="I11" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J11" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K11" t="n">
-        <v>439.2714293605875</v>
+        <v>358.6187566067425</v>
       </c>
       <c r="L11" t="n">
-        <v>871.3295686103884</v>
+        <v>790.6768958565433</v>
       </c>
       <c r="M11" t="n">
-        <v>1358.227155577603</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N11" t="n">
-        <v>1831.732426143464</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O11" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5075,16 +5075,16 @@
         <v>2149.508185494786</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.425004661992</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.786167790857</v>
+        <v>1876.869348623652</v>
       </c>
       <c r="X11" t="n">
-        <v>1629.786167790857</v>
+        <v>1584.73530141641</v>
       </c>
       <c r="Y11" t="n">
-        <v>1326.140405637959</v>
+        <v>1584.73530141641</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779667</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189216</v>
       </c>
       <c r="D12" t="n">
         <v>616.2710031091337</v>
@@ -5112,7 +5112,7 @@
         <v>206.1118778881637</v>
       </c>
       <c r="H12" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738861</v>
       </c>
       <c r="I12" t="n">
         <v>50.62931842731714</v>
@@ -5127,37 +5127,37 @@
         <v>841.2082694571443</v>
       </c>
       <c r="M12" t="n">
-        <v>1398.552487108883</v>
+        <v>1398.552487108882</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459617</v>
       </c>
       <c r="O12" t="n">
         <v>1980.672185824252</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.264736621381</v>
+        <v>2337.264736621382</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S12" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.858197092099</v>
+        <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X12" t="n">
         <v>1268.754082009649</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.1233623265432</v>
+        <v>377.0124358450593</v>
       </c>
       <c r="C13" t="n">
-        <v>186.1233623265432</v>
+        <v>297.2925595780041</v>
       </c>
       <c r="D13" t="n">
-        <v>186.1233623265432</v>
+        <v>254.1063386232788</v>
       </c>
       <c r="E13" t="n">
-        <v>186.1233623265432</v>
+        <v>191.9934176558621</v>
       </c>
       <c r="F13" t="n">
-        <v>186.1233623265432</v>
+        <v>129.4088559529037</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383703</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H13" t="n">
-        <v>97.5949804700208</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I13" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413164</v>
+        <v>96.79005415413178</v>
       </c>
       <c r="K13" t="n">
-        <v>246.299051995864</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405358</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447743</v>
+        <v>714.1904553447747</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068808</v>
+        <v>957.3332466068814</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P13" t="n">
-        <v>1357.735393016881</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q13" t="n">
         <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424591</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.898235192889</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212474</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911268</v>
+        <v>1111.266667009642</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208138</v>
+        <v>940.427455839329</v>
       </c>
       <c r="W13" t="n">
-        <v>553.2780741094771</v>
+        <v>744.1671476279928</v>
       </c>
       <c r="X13" t="n">
-        <v>411.9217032761172</v>
+        <v>602.8107767946331</v>
       </c>
       <c r="Y13" t="n">
-        <v>279.7826377396587</v>
+        <v>470.6717112581746</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1555.439965111439</v>
+        <v>1306.143511207994</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.402299715511</v>
+        <v>1306.143511207994</v>
       </c>
       <c r="D14" t="n">
-        <v>980.4744282139987</v>
+        <v>1304.729525632564</v>
       </c>
       <c r="E14" t="n">
-        <v>675.5848015913703</v>
+        <v>999.8398990099354</v>
       </c>
       <c r="F14" t="n">
         <v>675.5848015913703</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547664</v>
+        <v>349.9211271547663</v>
       </c>
       <c r="H14" t="n">
         <v>112.5694271974313</v>
@@ -5276,25 +5276,25 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J14" t="n">
-        <v>50.62931842731714</v>
+        <v>131.2819911811621</v>
       </c>
       <c r="K14" t="n">
-        <v>358.6187566067425</v>
+        <v>439.2714293605875</v>
       </c>
       <c r="L14" t="n">
-        <v>719.2973161773725</v>
+        <v>871.3295686103884</v>
       </c>
       <c r="M14" t="n">
-        <v>1206.194903144587</v>
+        <v>1358.227155577603</v>
       </c>
       <c r="N14" t="n">
-        <v>1679.700173710448</v>
+        <v>1831.732426143464</v>
       </c>
       <c r="O14" t="n">
-        <v>2074.574784355414</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P14" t="n">
-        <v>2379.433668932841</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.465921365857</v>
@@ -5312,16 +5312,16 @@
         <v>2149.508185494786</v>
       </c>
       <c r="V14" t="n">
-        <v>2149.508185494786</v>
+        <v>1902.425004661992</v>
       </c>
       <c r="W14" t="n">
-        <v>2149.508185494786</v>
+        <v>1902.425004661992</v>
       </c>
       <c r="X14" t="n">
-        <v>1859.587411358194</v>
+        <v>1610.29095745475</v>
       </c>
       <c r="Y14" t="n">
-        <v>1859.587411358194</v>
+        <v>1610.29095745475</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.813312877967</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2429931660049</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158804</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881647</v>
       </c>
       <c r="H15" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738871</v>
       </c>
       <c r="I15" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J15" t="n">
-        <v>137.8463925088447</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K15" t="n">
-        <v>413.4208828411996</v>
+        <v>326.203808759672</v>
       </c>
       <c r="L15" t="n">
-        <v>841.2082694571443</v>
+        <v>753.9911953756166</v>
       </c>
       <c r="M15" t="n">
-        <v>1398.552487108883</v>
+        <v>1311.335413027355</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459617</v>
       </c>
       <c r="O15" t="n">
         <v>1980.672185824252</v>
       </c>
       <c r="P15" t="n">
-        <v>2337.264736621381</v>
+        <v>2337.264736621382</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.465921365857</v>
@@ -5385,22 +5385,22 @@
         <v>2342.369630108873</v>
       </c>
       <c r="T15" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y15" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>459.6187986963635</v>
+        <v>322.944038031111</v>
       </c>
       <c r="C16" t="n">
-        <v>379.8989224293082</v>
+        <v>243.2241617640558</v>
       </c>
       <c r="D16" t="n">
-        <v>316.7231225283355</v>
+        <v>180.048361863083</v>
       </c>
       <c r="E16" t="n">
-        <v>259.2995401242115</v>
+        <v>117.9354408956665</v>
       </c>
       <c r="F16" t="n">
-        <v>196.7149784212531</v>
+        <v>117.9354408956665</v>
       </c>
       <c r="G16" t="n">
         <v>117.9354408956665</v>
@@ -5434,19 +5434,19 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413178</v>
+        <v>96.79005415413212</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958642</v>
+        <v>246.2990519958645</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405361</v>
+        <v>470.5847128405363</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447747</v>
+        <v>714.1904553447749</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068814</v>
+        <v>957.3332466068816</v>
       </c>
       <c r="O16" t="n">
         <v>1177.722352077498</v>
@@ -5455,31 +5455,31 @@
         <v>1357.735393016882</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424593</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.898235192891</v>
+        <v>1308.547497730989</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212475</v>
+        <v>1166.307686750573</v>
       </c>
       <c r="U16" t="n">
-        <v>920.3775934911282</v>
+        <v>969.0268560292261</v>
       </c>
       <c r="V16" t="n">
-        <v>749.5383823208153</v>
+        <v>798.1876448589132</v>
       </c>
       <c r="W16" t="n">
-        <v>553.2780741094788</v>
+        <v>601.9273366475769</v>
       </c>
       <c r="X16" t="n">
-        <v>553.2780741094788</v>
+        <v>460.5709658142172</v>
       </c>
       <c r="Y16" t="n">
-        <v>553.2780741094788</v>
+        <v>328.4319002777588</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.182987801132</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121855</v>
+        <v>931.9619764121858</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021231</v>
+        <v>704.7792099021233</v>
       </c>
       <c r="F17" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961242</v>
       </c>
       <c r="G17" t="n">
         <v>210.2741582720861</v>
@@ -5522,10 +5522,10 @@
         <v>907.9461548436961</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.194903144587</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N17" t="n">
-        <v>1679.700173710448</v>
+        <v>1868.349012376771</v>
       </c>
       <c r="O17" t="n">
         <v>2074.574784355414</v>
@@ -5549,7 +5549,7 @@
         <v>2382.628765832485</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112258</v>
       </c>
       <c r="W17" t="n">
         <v>2018.320468353689</v>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779667</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189216</v>
       </c>
       <c r="D18" t="n">
         <v>616.2710031091337</v>
@@ -5592,25 +5592,25 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J18" t="n">
-        <v>137.8463925088447</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4208828411996</v>
+        <v>326.203808759672</v>
       </c>
       <c r="L18" t="n">
-        <v>841.2082694571443</v>
+        <v>753.9911953756166</v>
       </c>
       <c r="M18" t="n">
-        <v>1398.552487108883</v>
+        <v>935.0807557888488</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459617</v>
       </c>
       <c r="O18" t="n">
         <v>1980.672185824252</v>
       </c>
       <c r="P18" t="n">
-        <v>2337.264736621381</v>
+        <v>2337.264736621382</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
@@ -5619,7 +5619,7 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T18" t="n">
         <v>2154.858197092098</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71501199482655</v>
+        <v>211.2523380015513</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70199584033752</v>
+        <v>209.2393218470622</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70199584033752</v>
+        <v>209.2393218470622</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70199584033752</v>
+        <v>209.2393218470622</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033752</v>
+        <v>209.2393218470622</v>
       </c>
       <c r="G19" t="n">
-        <v>50.62931842731714</v>
+        <v>208.1666444340418</v>
       </c>
       <c r="H19" t="n">
-        <v>50.62931842731714</v>
+        <v>208.1666444340418</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62931842731714</v>
+        <v>93.42742605750968</v>
       </c>
       <c r="J19" t="n">
         <v>50.62931842731714</v>
@@ -5680,10 +5680,10 @@
         <v>248.2096550833888</v>
       </c>
       <c r="M19" t="n">
-        <v>403.7082365724611</v>
+        <v>403.708236572461</v>
       </c>
       <c r="N19" t="n">
-        <v>558.7438668194015</v>
+        <v>558.7438668194014</v>
       </c>
       <c r="O19" t="n">
         <v>691.0258112748513</v>
@@ -5732,13 +5732,13 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121853</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E20" t="n">
         <v>704.7792099021228</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961238</v>
+        <v>458.230972596124</v>
       </c>
       <c r="G20" t="n">
         <v>210.2741582720861</v>
@@ -5759,10 +5759,10 @@
         <v>907.9461548436961</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144587</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710448</v>
+        <v>1868.349012376771</v>
       </c>
       <c r="O20" t="n">
         <v>2074.574784355414</v>
@@ -5780,7 +5780,7 @@
         <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
         <v>2382.628765832485</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8133128779672</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C21" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660054</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158804</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881641</v>
+        <v>206.1118778881647</v>
       </c>
       <c r="H21" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738871</v>
       </c>
       <c r="I21" t="n">
         <v>50.62931842731714</v>
@@ -5838,28 +5838,28 @@
         <v>841.2082694571443</v>
       </c>
       <c r="M21" t="n">
-        <v>1398.552487108883</v>
+        <v>1398.552487108882</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.571119459616</v>
+        <v>1984.042850779651</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.672185824252</v>
+        <v>2444.143917144286</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S21" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T21" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U21" t="n">
         <v>1936.382561450211</v>
@@ -5871,10 +5871,10 @@
         <v>1466.671070131855</v>
       </c>
       <c r="X21" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y21" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="22">
@@ -5887,22 +5887,22 @@
         <v>211.2523380015513</v>
       </c>
       <c r="C22" t="n">
-        <v>203.7110100790187</v>
+        <v>209.2393218470622</v>
       </c>
       <c r="D22" t="n">
-        <v>203.7110100790187</v>
+        <v>56.16742867482495</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033752</v>
+        <v>56.16742867482495</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033752</v>
+        <v>56.16742867482495</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731714</v>
+        <v>55.09475126180457</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731714</v>
+        <v>55.09475126180457</v>
       </c>
       <c r="I22" t="n">
         <v>50.62931842731714</v>
@@ -5917,10 +5917,10 @@
         <v>248.2096550833888</v>
       </c>
       <c r="M22" t="n">
-        <v>403.7082365724611</v>
+        <v>403.708236572461</v>
       </c>
       <c r="N22" t="n">
-        <v>558.7438668194015</v>
+        <v>558.7438668194014</v>
       </c>
       <c r="O22" t="n">
         <v>691.0258112748513</v>
@@ -5990,22 +5990,22 @@
         <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>475.8880155938953</v>
+        <v>287.2391769275712</v>
       </c>
       <c r="L23" t="n">
-        <v>907.9461548436961</v>
+        <v>719.2973161773721</v>
       </c>
       <c r="M23" t="n">
-        <v>1394.843741810911</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N23" t="n">
-        <v>1868.349012376772</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O23" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P23" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.465921365857</v>
@@ -6017,7 +6017,7 @@
         <v>2524.241286149684</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227624</v>
+        <v>2469.867611227625</v>
       </c>
       <c r="U23" t="n">
         <v>2382.628765832485</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779675</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189222</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091343</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660055</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158799</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881643</v>
       </c>
       <c r="H24" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738867</v>
       </c>
       <c r="I24" t="n">
         <v>50.62931842731713</v>
@@ -6072,40 +6072,40 @@
         <v>413.4208828411996</v>
       </c>
       <c r="L24" t="n">
-        <v>841.2082694571443</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="M24" t="n">
-        <v>1398.552487108883</v>
+        <v>970.7651004929378</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.571119459615</v>
+        <v>1520.571119459617</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P24" t="n">
         <v>2337.264736621381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R24" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T24" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X24" t="n">
         <v>1268.754082009649</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.2523380015513</v>
+        <v>206.1956669690494</v>
       </c>
       <c r="C25" t="n">
-        <v>209.2393218470622</v>
+        <v>204.1826508145604</v>
       </c>
       <c r="D25" t="n">
-        <v>209.2393218470622</v>
+        <v>204.1826508145604</v>
       </c>
       <c r="E25" t="n">
         <v>204.1826508145604</v>
@@ -6154,10 +6154,10 @@
         <v>248.2096550833888</v>
       </c>
       <c r="M25" t="n">
-        <v>403.7082365724611</v>
+        <v>403.708236572461</v>
       </c>
       <c r="N25" t="n">
-        <v>558.7438668194015</v>
+        <v>558.7438668194014</v>
       </c>
       <c r="O25" t="n">
         <v>691.0258112748513</v>
@@ -6184,13 +6184,13 @@
         <v>463.8399175455564</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467862</v>
+        <v>340.2297984142843</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259927</v>
+        <v>276.5802876934908</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.2047533021004</v>
+        <v>222.1480822695986</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F26" t="n">
         <v>653.9606153250975</v>
@@ -6221,49 +6221,49 @@
         <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J26" t="n">
-        <v>187.3366846949147</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>596.8002826177369</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610935</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321546</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630804</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019166</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.36557333999</v>
+        <v>3297.692648377287</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U26" t="n">
         <v>3154.974523052696</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6300,19 +6300,19 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J27" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="K27" t="n">
-        <v>432.7119054155454</v>
+        <v>345.4948313340178</v>
       </c>
       <c r="L27" t="n">
-        <v>860.4992920314901</v>
+        <v>773.2822179499625</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.843509683228</v>
+        <v>1330.626435601701</v>
       </c>
       <c r="N27" t="n">
         <v>1539.862142033962</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.096001248593</v>
+        <v>435.0960012485934</v>
       </c>
       <c r="C28" t="n">
-        <v>369.014527928411</v>
+        <v>369.0145279284114</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743114</v>
+        <v>319.4771309743118</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537679</v>
+        <v>271.0026129537683</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976827</v>
+        <v>222.0564541976831</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189694</v>
+        <v>156.9153196189698</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
         <v>129.448075456708</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320415</v>
+        <v>786.9494728320424</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.459262822379</v>
+        <v>1043.45926282238</v>
       </c>
       <c r="O28" t="n">
-        <v>1277.215367021225</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P28" t="n">
         <v>1470.59540668884</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S28" t="n">
         <v>1413.402053486826</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U28" t="n">
         <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553701</v>
+        <v>943.9574094553702</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909069</v>
+        <v>761.3355041909074</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044204</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148352</v>
+        <v>515.1168737148356</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027182</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472543</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967895</v>
+        <v>964.5773097967879</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250975</v>
+        <v>653.9606153250961</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353658</v>
+        <v>341.9353438353655</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J29" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550346</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L29" t="n">
         <v>1231.659656648232</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321545</v>
       </c>
       <c r="N29" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630803</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019165</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339989</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516402</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083145</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052694</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166775</v>
+        <v>2921.529745166773</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X29" t="n">
-        <v>2384.033666982144</v>
+        <v>2384.033666982143</v>
       </c>
       <c r="Y29" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776118</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J30" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K30" t="n">
-        <v>432.7119054155454</v>
+        <v>432.7119054155453</v>
       </c>
       <c r="L30" t="n">
         <v>860.4992920314901</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.843509683228</v>
+        <v>954.3717783631937</v>
       </c>
       <c r="N30" t="n">
         <v>1539.862142033962</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.096001248593</v>
+        <v>435.0960012485931</v>
       </c>
       <c r="C31" t="n">
-        <v>369.014527928411</v>
+        <v>369.0145279284111</v>
       </c>
       <c r="D31" t="n">
         <v>319.4771309743115</v>
@@ -6616,19 +6616,19 @@
         <v>103.2476000974933</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J31" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K31" t="n">
         <v>292.3240720266708</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995731</v>
+        <v>529.9767315995734</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320421</v>
+        <v>786.9494728320424</v>
       </c>
       <c r="N31" t="n">
         <v>1043.45926282238</v>
@@ -6649,22 +6649,22 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U31" t="n">
         <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.95740945537</v>
+        <v>943.9574094553702</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909068</v>
+        <v>761.335504190907</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044202</v>
+        <v>633.6175363044205</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148352</v>
+        <v>515.1168737148353</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967888</v>
       </c>
       <c r="F32" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250968</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353664</v>
+        <v>341.9353438353662</v>
       </c>
       <c r="H32" t="n">
         <v>118.2220468249039</v>
@@ -6698,25 +6698,25 @@
         <v>69.92034100166292</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322125</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1273576550348</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L32" t="n">
         <v>1231.659656648232</v>
       </c>
       <c r="M32" t="n">
-        <v>1820.031403358844</v>
+        <v>1718.704328321546</v>
       </c>
       <c r="N32" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O32" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019166</v>
       </c>
       <c r="P32" t="n">
-        <v>3297.692648377288</v>
+        <v>3196.36557333999</v>
       </c>
       <c r="Q32" t="n">
         <v>3449.871985516403</v>
@@ -6737,7 +6737,7 @@
         <v>2921.529745166774</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X32" t="n">
         <v>2384.033666982144</v>
@@ -6777,16 +6777,16 @@
         <v>69.92034100166292</v>
       </c>
       <c r="J33" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155454</v>
+        <v>345.4948313340178</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314901</v>
+        <v>773.2822179499624</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.843509683228</v>
+        <v>1330.6264356017</v>
       </c>
       <c r="N33" t="n">
         <v>1539.862142033962</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485929</v>
+        <v>435.096001248593</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284109</v>
+        <v>369.014527928411</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743113</v>
+        <v>319.4771309743114</v>
       </c>
       <c r="E34" t="n">
         <v>271.0026129537679</v>
@@ -6847,34 +6847,34 @@
         <v>222.0564541976827</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189693</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H34" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
         <v>69.92034100166292</v>
       </c>
       <c r="J34" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M34" t="n">
-        <v>786.949472832041</v>
+        <v>786.9494728320418</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.459262822378</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021225</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.595406688839</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q34" t="n">
         <v>1554.333871362879</v>
@@ -6883,25 +6883,25 @@
         <v>1519.323011771654</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486825</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
         <v>1284.800645453283</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.158217678809</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553699</v>
+        <v>943.95740945537</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909067</v>
+        <v>761.3355041909068</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044202</v>
+        <v>633.6175363044204</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.116873714835</v>
+        <v>515.1168737148352</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C35" t="n">
         <v>1208.407549338416</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442191</v>
+        <v>749.053937344219</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906253</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189932</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J35" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932079</v>
       </c>
       <c r="L35" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430088</v>
       </c>
       <c r="M35" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N35" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P35" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898477</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S35" t="n">
         <v>2703.265184067726</v>
@@ -6968,19 +6968,19 @@
         <v>2635.416592098072</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V35" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W35" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J36" t="n">
-        <v>141.6963688081575</v>
+        <v>141.6963688081574</v>
       </c>
       <c r="K36" t="n">
-        <v>417.2708591405124</v>
+        <v>141.6963688081574</v>
       </c>
       <c r="L36" t="n">
-        <v>845.0582457564572</v>
+        <v>381.5865144364221</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.402463408195</v>
+        <v>938.9307320881603</v>
       </c>
       <c r="N36" t="n">
         <v>1524.421095758928</v>
       </c>
       <c r="O36" t="n">
-        <v>1984.522162123563</v>
+        <v>1984.522162123564</v>
       </c>
       <c r="P36" t="n">
         <v>2341.114712920693</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.58900179270617</v>
+        <v>107.3029779201082</v>
       </c>
       <c r="C37" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802472</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802472</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802472</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062256</v>
+        <v>72.1010685906223</v>
       </c>
       <c r="G37" t="n">
-        <v>57.5534741300076</v>
+        <v>57.55347413000747</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="K37" t="n">
         <v>115.881131553196</v>
       </c>
       <c r="L37" t="n">
-        <v>252.0596313827016</v>
+        <v>252.0596313827015</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S37" t="n">
-        <v>731.4542493316515</v>
+        <v>731.4542493316513</v>
       </c>
       <c r="T37" t="n">
         <v>653.4463814162073</v>
       </c>
       <c r="U37" t="n">
-        <v>520.3974937598323</v>
+        <v>520.3974937598324</v>
       </c>
       <c r="V37" t="n">
-        <v>413.790225654491</v>
+        <v>413.7902256544912</v>
       </c>
       <c r="W37" t="n">
-        <v>281.7618605081262</v>
+        <v>281.7618605081266</v>
       </c>
       <c r="X37" t="n">
-        <v>184.9234566123367</v>
+        <v>204.6374327397385</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.0163341408499</v>
+        <v>136.7303102682518</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338418</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018772</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E38" t="n">
-        <v>749.05393734422</v>
+        <v>749.0539373442189</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906264</v>
+        <v>489.0307829906253</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H38" t="n">
-        <v>54.4792947266299</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I38" t="n">
-        <v>54.4792947266299</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137834</v>
+        <v>171.7485537137828</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932089</v>
+        <v>479.7379918932082</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430098</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M38" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N38" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O38" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P38" t="n">
-        <v>2571.932483898479</v>
+        <v>2571.932483898478</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331495</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331495</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655339</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V38" t="n">
-        <v>2351.851591887516</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081354</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.6632891772798</v>
+        <v>920.6632891772796</v>
       </c>
       <c r="C39" t="n">
-        <v>758.9596164182345</v>
+        <v>758.9596164182343</v>
       </c>
       <c r="D39" t="n">
-        <v>620.1209794084466</v>
+        <v>620.1209794084464</v>
       </c>
       <c r="E39" t="n">
-        <v>473.0929694653178</v>
+        <v>473.0929694653177</v>
       </c>
       <c r="F39" t="n">
-        <v>338.3991714151921</v>
+        <v>338.399171415192</v>
       </c>
       <c r="G39" t="n">
         <v>209.9618541874764</v>
@@ -7248,16 +7248,16 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.4792947266299</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J39" t="n">
-        <v>141.6963688081575</v>
+        <v>141.6963688081574</v>
       </c>
       <c r="K39" t="n">
-        <v>417.2708591405124</v>
+        <v>417.2708591405123</v>
       </c>
       <c r="L39" t="n">
-        <v>845.0582457564572</v>
+        <v>845.0582457564569</v>
       </c>
       <c r="M39" t="n">
         <v>1402.402463408195</v>
@@ -7272,7 +7272,7 @@
         <v>2341.114712920693</v>
       </c>
       <c r="Q39" t="n">
-        <v>2535.315897665169</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="R39" t="n">
         <v>2493.610501544505</v>
@@ -7281,7 +7281,7 @@
         <v>2346.219606408185</v>
       </c>
       <c r="T39" t="n">
-        <v>2158.708173391411</v>
+        <v>2158.70817339141</v>
       </c>
       <c r="U39" t="n">
         <v>1940.232537749523</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.3029779201077</v>
+        <v>107.3029779201073</v>
       </c>
       <c r="C40" t="n">
-        <v>91.81504471802404</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="D40" t="n">
-        <v>91.81504471802404</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="E40" t="n">
-        <v>91.81504471802404</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062257</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000761</v>
+        <v>57.55347413000759</v>
       </c>
       <c r="H40" t="n">
-        <v>54.4792947266299</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I40" t="n">
-        <v>54.4792947266299</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J40" t="n">
-        <v>54.4792947266299</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K40" t="n">
-        <v>115.8811315531961</v>
+        <v>115.881131553196</v>
       </c>
       <c r="L40" t="n">
-        <v>252.0596313827016</v>
+        <v>252.0596313827015</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187144</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O40" t="n">
-        <v>694.8757875741643</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R40" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S40" t="n">
-        <v>731.4542493316516</v>
+        <v>731.4542493316512</v>
       </c>
       <c r="T40" t="n">
-        <v>653.4463814162074</v>
+        <v>653.446381416207</v>
       </c>
       <c r="U40" t="n">
-        <v>520.3974937598324</v>
+        <v>520.3974937598321</v>
       </c>
       <c r="V40" t="n">
-        <v>413.7902256544911</v>
+        <v>413.7902256544908</v>
       </c>
       <c r="W40" t="n">
-        <v>281.7618605081263</v>
+        <v>281.761860508126</v>
       </c>
       <c r="X40" t="n">
-        <v>204.6374327397382</v>
+        <v>204.6374327397378</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.7303102682514</v>
+        <v>136.730310268251</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C41" t="n">
         <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.711620901877</v>
+        <v>989.7116209018764</v>
       </c>
       <c r="E41" t="n">
-        <v>749.05393734422</v>
+        <v>749.0539373442194</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906264</v>
+        <v>489.030782990626</v>
       </c>
       <c r="G41" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J41" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932079</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430089</v>
+        <v>911.7961311430086</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N41" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O41" t="n">
         <v>2267.07359932105</v>
@@ -7430,31 +7430,31 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.702829655339</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V41" t="n">
-        <v>2351.851591887516</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J42" t="n">
-        <v>141.6963688081575</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K42" t="n">
-        <v>417.2708591405124</v>
+        <v>330.0537850589847</v>
       </c>
       <c r="L42" t="n">
-        <v>845.0582457564572</v>
+        <v>757.8411716749295</v>
       </c>
       <c r="M42" t="n">
-        <v>1402.402463408195</v>
+        <v>1133.131916832635</v>
       </c>
       <c r="N42" t="n">
-        <v>1524.421095758928</v>
+        <v>1718.622280503403</v>
       </c>
       <c r="O42" t="n">
-        <v>1984.522162123563</v>
+        <v>2178.723346868039</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.315897665168</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.589001792706</v>
+        <v>87.5890017927059</v>
       </c>
       <c r="C43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="D43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="E43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="F43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000754</v>
+        <v>57.5534741300075</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K43" t="n">
         <v>115.881131553196</v>
       </c>
       <c r="L43" t="n">
-        <v>252.0596313827016</v>
+        <v>252.0596313827015</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O43" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316516</v>
+        <v>711.7402732042492</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162075</v>
+        <v>633.7324052888051</v>
       </c>
       <c r="U43" t="n">
-        <v>500.6835176324304</v>
+        <v>500.6835176324303</v>
       </c>
       <c r="V43" t="n">
-        <v>394.0762495270892</v>
+        <v>394.076249527089</v>
       </c>
       <c r="W43" t="n">
-        <v>262.0478843807245</v>
+        <v>262.0478843807243</v>
       </c>
       <c r="X43" t="n">
-        <v>184.9234566123364</v>
+        <v>184.9234566123363</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.0163341408497</v>
+        <v>117.0163341408495</v>
       </c>
     </row>
     <row r="44">
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C44" t="n">
         <v>1208.407549338416</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018754</v>
+        <v>989.7116209018757</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442182</v>
+        <v>749.0539373442186</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906249</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189935</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932082</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430092</v>
+        <v>911.7961311430088</v>
       </c>
       <c r="M44" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N44" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P44" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898477</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R44" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067725</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V44" t="n">
         <v>2351.851591887515</v>
@@ -7691,7 +7691,7 @@
         <v>1915.542593939082</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J45" t="n">
-        <v>141.6963688081575</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="K45" t="n">
-        <v>417.2708591405124</v>
+        <v>148.0003125649523</v>
       </c>
       <c r="L45" t="n">
-        <v>845.0582457564572</v>
+        <v>575.787699180897</v>
       </c>
       <c r="M45" t="n">
-        <v>1402.402463408195</v>
+        <v>1133.131916832635</v>
       </c>
       <c r="N45" t="n">
-        <v>1524.421095758928</v>
+        <v>1718.622280503403</v>
       </c>
       <c r="O45" t="n">
-        <v>1984.522162123563</v>
+        <v>2178.723346868039</v>
       </c>
       <c r="P45" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.315897665168</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270643</v>
+        <v>87.58900179270589</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062236</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062236</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062236</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062236</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000769</v>
+        <v>57.55347413000749</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662985</v>
       </c>
       <c r="K46" t="n">
-        <v>115.8811315531961</v>
+        <v>115.881131553196</v>
       </c>
       <c r="L46" t="n">
-        <v>252.0596313827016</v>
+        <v>252.0596313827015</v>
       </c>
       <c r="M46" t="n">
-        <v>407.558212871774</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187144</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O46" t="n">
-        <v>694.8757875741643</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983819</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983819</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="S46" t="n">
-        <v>711.7402732042509</v>
+        <v>713.358447812054</v>
       </c>
       <c r="T46" t="n">
-        <v>633.7324052888067</v>
+        <v>635.3505798966099</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324316</v>
+        <v>502.3016922402351</v>
       </c>
       <c r="V46" t="n">
-        <v>394.0762495270902</v>
+        <v>395.6944241348939</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807253</v>
+        <v>262.0478843807243</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123371</v>
+        <v>184.9234566123363</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408502</v>
+        <v>117.0163341408495</v>
       </c>
     </row>
   </sheetData>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.371802766976</v>
       </c>
       <c r="K11" t="n">
-        <v>384.4025856017992</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>512.2670080061664</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>154.9918226869888</v>
+        <v>154.9918226869897</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3718027669759</v>
+        <v>182.839148982981</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>470.8589933810695</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>122.4415561073552</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472585</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>154.9918226869888</v>
+        <v>243.0898773147955</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9170,13 +9170,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>393.8132110494462</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415689</v>
+        <v>304.4858531503332</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472585</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>225.3613735431757</v>
       </c>
       <c r="N18" t="n">
-        <v>154.9918226869888</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9407,13 +9407,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>393.8132110494462</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>304.4858531503332</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9489,16 +9489,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>154.9918226869888</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>142.0111481454958</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339644</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9638,7 +9638,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>230.8346538512777</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9650,13 +9650,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>458.0537849008531</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,13 +9720,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525987</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>154.9918226869879</v>
+        <v>587.1002940162261</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472585</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>154.9918226869883</v>
+        <v>243.0898773147943</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>137.263318915369</v>
       </c>
       <c r="N30" t="n">
-        <v>154.9918226869883</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472585</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>154.9918226869883</v>
+        <v>243.0898773147946</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10665,16 +10665,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356951</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>292.2972559776484</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>154.9918226869874</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236967</v>
+        <v>219.8255997236961</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>154.9918226869878</v>
+        <v>154.9918226869884</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11063,7 +11063,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155854</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472585</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11145,10 +11145,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>605.4165828749999</v>
+        <v>421.5241864163812</v>
       </c>
       <c r="N42" t="n">
-        <v>154.9918226869873</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339644</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11312,7 +11312,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229269</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472585</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>159.9124116577336</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>154.9918226869873</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339644</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>226.2718053066303</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>280.0985927864968</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564025</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443797</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.91157071596162</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351699</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438479</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196318</v>
+        <v>19.78968315678507</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774263</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592894</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>56.9817053560396</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.63306124366582</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.4960054222765</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.1627699127169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>289.1172887419688</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>278.6987470668207</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443796</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024232</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X14" t="n">
-        <v>2.191140339942899</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>300.6093045313685</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>87.28969903480289</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.642445177659788</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.9587160859288</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.99174215033069</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227652</v>
+        <v>46.4960054222765</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271691</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250261</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>134028.4105137782</v>
       </c>
       <c r="D2" t="n">
-        <v>134028.4105137782</v>
+        <v>134028.4105137783</v>
       </c>
       <c r="E2" t="n">
         <v>117125.1896709593</v>
@@ -26350,10 +26350,10 @@
         <v>134334.2105864818</v>
       </c>
       <c r="O2" t="n">
+        <v>134334.2105864819</v>
+      </c>
+      <c r="P2" t="n">
         <v>134334.2105864818</v>
-      </c>
-      <c r="P2" t="n">
-        <v>134334.2105864817</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>367830.3395149714</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>61543.83320915241</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>83547.7416761393</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>61543.83320915244</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>83547.74167613915</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.029028291148799e-10</v>
-      </c>
-      <c r="L3" t="n">
-        <v>61543.83320915246</v>
       </c>
       <c r="M3" t="n">
         <v>149683.3109415065</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561258</v>
+        <v>20455.48779561269</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>401607.4064143078</v>
       </c>
       <c r="E4" t="n">
-        <v>255024.1601164461</v>
+        <v>255024.1601164463</v>
       </c>
       <c r="F4" t="n">
-        <v>255024.1601164462</v>
+        <v>255024.1601164463</v>
       </c>
       <c r="G4" t="n">
         <v>310950.7206745582</v>
@@ -26448,7 +26448,7 @@
         <v>309193.0084127064</v>
       </c>
       <c r="M4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="N4" t="n">
         <v>308176.3362657602</v>
@@ -26457,7 +26457,7 @@
         <v>308176.3362657602</v>
       </c>
       <c r="P4" t="n">
-        <v>308176.33626576</v>
+        <v>308176.3362657602</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>55349.24364233074</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462552</v>
       </c>
       <c r="L5" t="n">
         <v>64678.11138462553</v>
       </c>
       <c r="M5" t="n">
-        <v>57153.73105654695</v>
+        <v>57153.73105654694</v>
       </c>
       <c r="N5" t="n">
-        <v>57153.73105654696</v>
+        <v>57153.73105654694</v>
       </c>
       <c r="O5" t="n">
         <v>57153.73105654695</v>
       </c>
       <c r="P5" t="n">
-        <v>57153.73105654695</v>
+        <v>57153.73105654694</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301206.5959005295</v>
+        <v>-301210.9644729967</v>
       </c>
       <c r="C6" t="n">
-        <v>-301206.5959005295</v>
+        <v>-301210.9644729967</v>
       </c>
       <c r="D6" t="n">
-        <v>-301206.5959005295</v>
+        <v>-301210.9644729967</v>
       </c>
       <c r="E6" t="n">
-        <v>-554611.1429602137</v>
+        <v>-554856.9861161498</v>
       </c>
       <c r="F6" t="n">
-        <v>-186780.8034452426</v>
+        <v>-187026.6466011786</v>
       </c>
       <c r="G6" t="n">
         <v>-293509.5869395596</v>
@@ -26543,25 +26543,25 @@
         <v>-231965.7537304071</v>
       </c>
       <c r="J6" t="n">
-        <v>-323084.6508869895</v>
+        <v>-323084.6508869897</v>
       </c>
       <c r="K6" t="n">
-        <v>-239536.9092108504</v>
+        <v>-239536.9092108501</v>
       </c>
       <c r="L6" t="n">
         <v>-301080.7424200028</v>
       </c>
       <c r="M6" t="n">
-        <v>-380679.1676773317</v>
+        <v>-380679.1676773318</v>
       </c>
       <c r="N6" t="n">
-        <v>-230995.8567358254</v>
+        <v>-230995.8567358252</v>
       </c>
       <c r="O6" t="n">
-        <v>-251451.3445314379</v>
+        <v>-251451.344531438</v>
       </c>
       <c r="P6" t="n">
-        <v>-230995.8567358252</v>
+        <v>-230995.8567358253</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26716,7 +26716,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="N2" t="n">
         <v>152.5867559728737</v>
@@ -26725,7 +26725,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="F3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="G3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="H3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="I3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="J3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="K3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="L3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="M3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="O3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="P3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791156</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26811,25 @@
         <v>632.8664803414641</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207863</v>
       </c>
       <c r="L4" t="n">
         <v>874.0042625207865</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828732</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828737</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828731</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>76.92979151144051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25.56935974451578</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>76.92979151144054</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>25.56935974451567</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.286285363935998e-13</v>
-      </c>
-      <c r="L2" t="n">
-        <v>76.92979151144057</v>
-      </c>
       <c r="M2" t="n">
-        <v>50.0876047169174</v>
+        <v>50.08760471691753</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451572</v>
+        <v>25.56935974451586</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793224</v>
+        <v>241.1377821793226</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035512</v>
+        <v>439.853401903551</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144054</v>
+        <v>76.92979151144051</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451567</v>
+        <v>25.56935974451578</v>
       </c>
       <c r="P2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855171</v>
+        <v>88.99713233855185</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-1.058708676282549e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855185</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S17" t="n">
         <v>165.9269238499924</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.964971103334904</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C19" t="n">
         <v>165.9269238499924</v>
@@ -28740,10 +28740,10 @@
         <v>155.6301935822177</v>
       </c>
       <c r="I19" t="n">
-        <v>135.4931377608283</v>
+        <v>21.90131156806152</v>
       </c>
       <c r="J19" t="n">
-        <v>42.3701265538906</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91484350440139</v>
+        <v>17.9148435044014</v>
       </c>
       <c r="R19" t="n">
-        <v>137.1599022512687</v>
+        <v>137.1599022512688</v>
       </c>
       <c r="S19" t="n">
         <v>165.9269238499924</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S20" t="n">
         <v>165.9269238499924</v>
@@ -28959,13 +28959,13 @@
         <v>165.9269238499924</v>
       </c>
       <c r="C22" t="n">
-        <v>160.4538951996293</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -28977,10 +28977,10 @@
         <v>155.6301935822177</v>
       </c>
       <c r="I22" t="n">
-        <v>135.4931377608283</v>
+        <v>131.0723592546858</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440139</v>
+        <v>17.9148435044014</v>
       </c>
       <c r="R22" t="n">
-        <v>137.1599022512687</v>
+        <v>137.1599022512688</v>
       </c>
       <c r="S22" t="n">
         <v>165.9269238499924</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S23" t="n">
         <v>165.9269238499924</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-6.110667527536862e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>145.4828197741175</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440139</v>
+        <v>17.9148435044014</v>
       </c>
       <c r="R25" t="n">
-        <v>137.1599022512687</v>
+        <v>137.1599022512688</v>
       </c>
       <c r="S25" t="n">
         <v>165.9269238499924</v>
@@ -29256,7 +29256,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9269238499924</v>
+        <v>160.9208195278155</v>
       </c>
       <c r="X25" t="n">
         <v>165.9269238499924</v>
@@ -29296,7 +29296,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1485704102010317</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K26" t="n">
         <v>102.4991512559563</v>
@@ -29317,7 +29317,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102026659</v>
       </c>
       <c r="R26" t="n">
         <v>102.4991512559563</v>
@@ -29463,7 +29463,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M28" t="n">
-        <v>102.4991512559556</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N28" t="n">
         <v>102.4991512559563</v>
@@ -29542,13 +29542,13 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102007048</v>
       </c>
       <c r="N29" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1485704102009322</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P29" t="n">
         <v>102.4991512559563</v>
@@ -29697,7 +29697,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559567</v>
       </c>
       <c r="M31" t="n">
         <v>102.4991512559563</v>
@@ -29779,7 +29779,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102016143</v>
       </c>
       <c r="N32" t="n">
         <v>102.4991512559563</v>
@@ -29791,7 +29791,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1485704102007901</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R32" t="n">
         <v>102.4991512559563</v>
@@ -29937,7 +29937,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.499151255955</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N34" t="n">
         <v>102.4991512559563</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30153,19 +30153,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>131.4390120583523</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440139</v>
+        <v>17.9148435044014</v>
       </c>
       <c r="R37" t="n">
-        <v>137.1599022512687</v>
+        <v>137.1599022512688</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X37" t="n">
-        <v>133.0699196067464</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S38" t="n">
         <v>152.5867559728737</v>
@@ -30381,7 +30381,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>131.4390120583532</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>152.5867559728737</v>
@@ -30402,7 +30402,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.37012655389059</v>
+        <v>42.37012655389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440138</v>
+        <v>17.9148435044014</v>
       </c>
       <c r="R40" t="n">
-        <v>137.1599022512687</v>
+        <v>137.1599022512688</v>
       </c>
       <c r="S40" t="n">
         <v>152.5867559728737</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728738</v>
@@ -30639,7 +30639,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.37012655389059</v>
+        <v>42.37012655389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,19 +30660,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440138</v>
+        <v>17.9148435044014</v>
       </c>
       <c r="R43" t="n">
-        <v>137.1599022512687</v>
+        <v>137.1599022512688</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067457</v>
       </c>
       <c r="T43" t="n">
         <v>152.5867559728738</v>
       </c>
       <c r="U43" t="n">
-        <v>133.0699196067457</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V43" t="n">
         <v>152.5867559728738</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591269</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.37012655389059</v>
+        <v>42.37012655389061</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440137</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.1599022512687</v>
+        <v>137.1599022512688</v>
       </c>
       <c r="S46" t="n">
-        <v>133.0699196067471</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728736</v>
+        <v>150.984763111147</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S11" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K12" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061804</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933945</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T12" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519915</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653592</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R13" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T13" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S14" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K15" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061804</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933945</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R15" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T15" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519915</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653592</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R16" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T16" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S17" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K18" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061804</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933945</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R18" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T18" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519915</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J19" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653592</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P19" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R19" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T19" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S20" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K21" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061804</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933945</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R21" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T21" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519915</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J22" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653592</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P22" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R22" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T22" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S23" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K24" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061804</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933945</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R24" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T24" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519915</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J25" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653592</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P25" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R25" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T25" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S26" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K27" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061804</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933945</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R27" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T27" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519915</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J28" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653592</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P28" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R28" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T28" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J29" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S29" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T29" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K30" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061804</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933945</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519915</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J31" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653592</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T31" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S32" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K33" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061804</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933945</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519915</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J34" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653592</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T34" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S35" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K36" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061804</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933945</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519915</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J37" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653592</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R37" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T37" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S38" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061808</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933949</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519918</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J40" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653594</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N40" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T40" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061808</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933949</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519918</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J43" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653594</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N43" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R43" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T43" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642834</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350219</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701278</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611573</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780455</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337908</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427423</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815597</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563505</v>
       </c>
       <c r="R44" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.04310213196514267</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736394</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309724</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588791</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061811</v>
+        <v>73.041276910618</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933952</v>
+        <v>74.9744621693394</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483287</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690128</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149605</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654683</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429757</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519921</v>
+        <v>7.26787619251991</v>
       </c>
       <c r="J46" t="n">
-        <v>17.08653964607842</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K46" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653596</v>
+        <v>37.8839145065359</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R46" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412533</v>
       </c>
       <c r="T46" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>274.1139918647652</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L11" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M11" t="n">
-        <v>491.8157444113278</v>
+        <v>419.7151588768118</v>
       </c>
       <c r="N11" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O11" t="n">
         <v>398.8632430757227</v>
       </c>
       <c r="P11" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780564</v>
       </c>
       <c r="K12" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L12" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M12" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N12" t="n">
-        <v>123.2511437886199</v>
+        <v>123.2511437886208</v>
       </c>
       <c r="O12" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P12" t="n">
         <v>360.1944957546763</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466111</v>
+        <v>46.62700578466124</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391236</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703755</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
-        <v>246.0664065699378</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.5987790526329</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511273</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P13" t="n">
-        <v>181.8313544842261</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415032</v>
+        <v>71.08228883415046</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>81.46734621600504</v>
       </c>
       <c r="K14" t="n">
         <v>311.1004426054802</v>
       </c>
       <c r="L14" t="n">
-        <v>364.3217773440707</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M14" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N14" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O14" t="n">
         <v>398.8632430757227</v>
       </c>
       <c r="P14" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.567931750521</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L15" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M15" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N15" t="n">
-        <v>123.2511437886199</v>
+        <v>211.3491984164266</v>
       </c>
       <c r="O15" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P15" t="n">
         <v>360.1944957546763</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466122</v>
+        <v>46.62700578466124</v>
       </c>
       <c r="K16" t="n">
         <v>151.0191897391237</v>
@@ -35817,13 +35817,13 @@
         <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P16" t="n">
         <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415043</v>
+        <v>71.08228883415046</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K17" t="n">
         <v>311.1004426054802</v>
@@ -35890,19 +35890,19 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
-        <v>301.2613619200918</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N17" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8632430757227</v>
+        <v>208.308860584487</v>
       </c>
       <c r="P17" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.567931750521</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L18" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M18" t="n">
-        <v>562.9739572239781</v>
+        <v>182.9187478921538</v>
       </c>
       <c r="N18" t="n">
-        <v>123.2511437886199</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O18" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P18" t="n">
         <v>360.1944957546763</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057185</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
@@ -36057,7 +36057,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567433</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K20" t="n">
         <v>311.1004426054802</v>
@@ -36127,19 +36127,19 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
-        <v>301.2613619200918</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N20" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757227</v>
+        <v>208.308860584487</v>
       </c>
       <c r="P20" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.567931750521</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780564</v>
       </c>
       <c r="K21" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L21" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M21" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N21" t="n">
-        <v>123.2511437886199</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O21" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P21" t="n">
-        <v>360.1944957546763</v>
+        <v>88.20404466825374</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057185</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
@@ -36294,7 +36294,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567433</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K23" t="n">
-        <v>311.1004426054802</v>
+        <v>120.5460601142438</v>
       </c>
       <c r="L23" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M23" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N23" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O23" t="n">
-        <v>361.8767923350069</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P23" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780564</v>
       </c>
       <c r="K24" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L24" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N24" t="n">
-        <v>123.251143788619</v>
+        <v>555.3596151178573</v>
       </c>
       <c r="O24" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P24" t="n">
         <v>360.1944957546763</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057185</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
@@ -36531,7 +36531,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567433</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>118.602367366921</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L26" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345429</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672842</v>
+        <v>594.314895667284</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426846</v>
       </c>
       <c r="O26" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P26" t="n">
         <v>410.4374185058832</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064773</v>
+        <v>153.7165021607236</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004361</v>
+        <v>46.61117633004356</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L27" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M27" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N27" t="n">
-        <v>123.2511437886194</v>
+        <v>211.3491984164254</v>
       </c>
       <c r="O27" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P27" t="n">
         <v>360.1944957546763</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206572</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L28" t="n">
         <v>240.0531914877801</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5684254873417</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N28" t="n">
         <v>259.1007979700375</v>
@@ -36768,10 +36768,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P28" t="n">
-        <v>195.3333734016307</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155493</v>
+        <v>84.58430775155489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K29" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L29" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345429</v>
       </c>
       <c r="M29" t="n">
-        <v>594.3148956672841</v>
+        <v>491.9643148215284</v>
       </c>
       <c r="N29" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426846</v>
       </c>
       <c r="O29" t="n">
-        <v>399.0118134859237</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P29" t="n">
         <v>410.4374185058832</v>
@@ -36853,7 +36853,7 @@
         <v>256.0670830064772</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004359</v>
+        <v>46.61117633004356</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780564</v>
       </c>
       <c r="K30" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L30" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M30" t="n">
-        <v>562.9739572239781</v>
+        <v>94.82069326434709</v>
       </c>
       <c r="N30" t="n">
-        <v>123.2511437886194</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O30" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P30" t="n">
         <v>360.1944957546763</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L31" t="n">
-        <v>240.0531914877801</v>
+        <v>240.0531914877805</v>
       </c>
       <c r="M31" t="n">
         <v>259.5684254873424</v>
@@ -37008,7 +37008,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155492</v>
+        <v>84.58430775155489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L32" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345429</v>
       </c>
       <c r="M32" t="n">
-        <v>594.3148956672842</v>
+        <v>491.9643148215293</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426846</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.7165021607217</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004362</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L33" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M33" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N33" t="n">
-        <v>123.2511437886194</v>
+        <v>211.3491984164257</v>
       </c>
       <c r="O33" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P33" t="n">
         <v>360.1944957546763</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206573</v>
+        <v>60.12902470206571</v>
       </c>
       <c r="K34" t="n">
         <v>164.5212086565282</v>
@@ -37233,7 +37233,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873412</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
         <v>259.1007979700375</v>
@@ -37242,10 +37242,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016307</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155495</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K35" t="n">
         <v>311.1004426054802</v>
@@ -37312,19 +37312,19 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M35" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N35" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O35" t="n">
         <v>398.8632430757227</v>
       </c>
       <c r="P35" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.567931750521</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780564</v>
       </c>
       <c r="K36" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>432.1084713292371</v>
+        <v>242.3132784123886</v>
       </c>
       <c r="M36" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N36" t="n">
-        <v>123.2511437886185</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O36" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P36" t="n">
         <v>360.1944957546763</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057185</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
@@ -37479,7 +37479,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567433</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.4537969567207</v>
+        <v>118.4537969567201</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M38" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P38" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.567931750521</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780564</v>
       </c>
       <c r="K39" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L39" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M39" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N39" t="n">
-        <v>123.251143788619</v>
+        <v>123.2511437886194</v>
       </c>
       <c r="O39" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P39" t="n">
         <v>360.1944957546763</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057185</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N40" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O40" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567433</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M41" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P41" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.567931750521</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L42" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M42" t="n">
-        <v>562.9739572239781</v>
+        <v>379.0815607653593</v>
       </c>
       <c r="N42" t="n">
-        <v>123.2511437886185</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O42" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P42" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057185</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N43" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O43" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567433</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M44" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2881520867285</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P44" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499263</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.567931750521</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780568</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>278.3580710427827</v>
+        <v>94.46567458416409</v>
       </c>
       <c r="L45" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M45" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N45" t="n">
-        <v>123.2511437886185</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O45" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.0220574005719</v>
+        <v>62.02205740057185</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M46" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N46" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O46" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567437</v>
+        <v>92.83422214567433</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
